--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H2">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J2">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.16990234270946</v>
+        <v>3.057109</v>
       </c>
       <c r="N2">
-        <v>2.16990234270946</v>
+        <v>9.171327</v>
       </c>
       <c r="O2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P2">
-        <v>0.01962055177520146</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q2">
-        <v>1.818629996547841</v>
+        <v>3.073138441523333</v>
       </c>
       <c r="R2">
-        <v>1.818629996547841</v>
+        <v>27.65824597371</v>
       </c>
       <c r="S2">
-        <v>0.001264062051326174</v>
+        <v>0.001947069375719627</v>
       </c>
       <c r="T2">
-        <v>0.001264062051326174</v>
+        <v>0.001947069375719627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H3">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J3">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>88.76509624945309</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N3">
-        <v>88.76509624945309</v>
+        <v>267.08268</v>
       </c>
       <c r="O3">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P3">
-        <v>0.8026260594836044</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q3">
-        <v>74.39545250877057</v>
+        <v>89.49436117293332</v>
       </c>
       <c r="R3">
-        <v>74.39545250877057</v>
+        <v>805.4492505563999</v>
       </c>
       <c r="S3">
-        <v>0.051709511272818</v>
+        <v>0.05670155551242748</v>
       </c>
       <c r="T3">
-        <v>0.051709511272818</v>
+        <v>0.05670155551242746</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.838116057461369</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H4">
-        <v>0.838116057461369</v>
+        <v>3.01573</v>
       </c>
       <c r="I4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J4">
-        <v>0.06442540789927378</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>19.6583408597897</v>
+        <v>0.184005</v>
       </c>
       <c r="N4">
-        <v>19.6583408597897</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O4">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P4">
-        <v>0.177753388741194</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q4">
-        <v>16.47597113763868</v>
+        <v>0.18496979955</v>
       </c>
       <c r="R4">
-        <v>16.47597113763868</v>
+        <v>1.66472819595</v>
       </c>
       <c r="S4">
-        <v>0.01145183457512961</v>
+        <v>0.0001171925830839823</v>
       </c>
       <c r="T4">
-        <v>0.01145183457512961</v>
+        <v>0.0001171925830839822</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.1160701072289</v>
+        <v>1.005243333333333</v>
       </c>
       <c r="H5">
-        <v>10.1160701072289</v>
+        <v>3.01573</v>
       </c>
       <c r="I5">
-        <v>0.7776153877423023</v>
+        <v>0.07224874268505826</v>
       </c>
       <c r="J5">
-        <v>0.7776153877423023</v>
+        <v>0.07224874268505825</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.16990234270946</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N5">
-        <v>2.16990234270946</v>
+        <v>63.508942</v>
       </c>
       <c r="O5">
-        <v>0.01962055177520146</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P5">
-        <v>0.01962055177520146</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q5">
-        <v>21.95088422468913</v>
+        <v>21.28064685085111</v>
       </c>
       <c r="R5">
-        <v>21.95088422468913</v>
+        <v>191.52582165766</v>
       </c>
       <c r="S5">
-        <v>0.0152572429763912</v>
+        <v>0.01348292521382718</v>
       </c>
       <c r="T5">
-        <v>0.0152572429763912</v>
+        <v>0.01348292521382718</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H6">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J6">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.76509624945309</v>
+        <v>3.057109</v>
       </c>
       <c r="N6">
-        <v>88.76509624945309</v>
+        <v>9.171327</v>
       </c>
       <c r="O6">
-        <v>0.8026260594836044</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P6">
-        <v>0.8026260594836044</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q6">
-        <v>897.9539367343885</v>
+        <v>31.36544716448734</v>
       </c>
       <c r="R6">
-        <v>897.9539367343885</v>
+        <v>282.289024480386</v>
       </c>
       <c r="S6">
-        <v>0.6241343744574193</v>
+        <v>0.01987242123705074</v>
       </c>
       <c r="T6">
-        <v>0.6241343744574193</v>
+        <v>0.01987242123705074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.1160701072289</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H7">
-        <v>10.1160701072289</v>
+        <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7776153877423023</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J7">
-        <v>0.7776153877423023</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.6583408597897</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N7">
-        <v>19.6583408597897</v>
+        <v>267.08268</v>
       </c>
       <c r="O7">
-        <v>0.177753388741194</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P7">
-        <v>0.177753388741194</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q7">
-        <v>198.8651543294351</v>
+        <v>913.4084618386933</v>
       </c>
       <c r="R7">
-        <v>198.8651543294351</v>
+        <v>8220.676156548239</v>
       </c>
       <c r="S7">
-        <v>0.1382237703084918</v>
+        <v>0.5787144567062572</v>
       </c>
       <c r="T7">
-        <v>0.1382237703084918</v>
+        <v>0.5787144567062571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.357849177158858</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H8">
-        <v>0.357849177158858</v>
+        <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.02750762140831738</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J8">
-        <v>0.02750762140831738</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.16990234270946</v>
+        <v>0.184005</v>
       </c>
       <c r="N8">
-        <v>2.16990234270946</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O8">
-        <v>0.01962055177520146</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P8">
-        <v>0.01962055177520146</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q8">
-        <v>0.7764977678536585</v>
+        <v>1.88786173653</v>
       </c>
       <c r="R8">
-        <v>0.7764977678536585</v>
+        <v>16.99075562877</v>
       </c>
       <c r="S8">
-        <v>0.0005397147100545314</v>
+        <v>0.001196105493694704</v>
       </c>
       <c r="T8">
-        <v>0.0005397147100545314</v>
+        <v>0.001196105493694703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.357849177158858</v>
+        <v>10.25983933333333</v>
       </c>
       <c r="H9">
-        <v>0.357849177158858</v>
+        <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.02750762140831738</v>
+        <v>0.7373940889775011</v>
       </c>
       <c r="J9">
-        <v>0.02750762140831738</v>
+        <v>0.737394088977501</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.76509624945309</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N9">
-        <v>88.76509624945309</v>
+        <v>63.508942</v>
       </c>
       <c r="O9">
-        <v>0.8026260594836044</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P9">
-        <v>0.8026260594836044</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q9">
-        <v>31.76451665329362</v>
+        <v>217.1971803833285</v>
       </c>
       <c r="R9">
-        <v>31.76451665329362</v>
+        <v>1954.774623449956</v>
       </c>
       <c r="S9">
-        <v>0.02207833377672462</v>
+        <v>0.1376111055404985</v>
       </c>
       <c r="T9">
-        <v>0.02207833377672462</v>
+        <v>0.1376111055404985</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.357849177158858</v>
+        <v>0.383875</v>
       </c>
       <c r="H10">
-        <v>0.357849177158858</v>
+        <v>1.151625</v>
       </c>
       <c r="I10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J10">
-        <v>0.02750762140831738</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.6583408597897</v>
+        <v>3.057109</v>
       </c>
       <c r="N10">
-        <v>19.6583408597897</v>
+        <v>9.171327</v>
       </c>
       <c r="O10">
-        <v>0.177753388741194</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="P10">
-        <v>0.177753388741194</v>
+        <v>0.02694952608666365</v>
       </c>
       <c r="Q10">
-        <v>7.034721100984101</v>
+        <v>1.173547717375</v>
       </c>
       <c r="R10">
-        <v>7.034721100984101</v>
+        <v>10.561929456375</v>
       </c>
       <c r="S10">
-        <v>0.004889572921538231</v>
+        <v>0.0007435326669871361</v>
       </c>
       <c r="T10">
-        <v>0.004889572921538231</v>
+        <v>0.0007435326669871361</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.69705664204216</v>
+        <v>0.383875</v>
       </c>
       <c r="H11">
-        <v>1.69705664204216</v>
+        <v>1.151625</v>
       </c>
       <c r="I11">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J11">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.16990234270946</v>
+        <v>89.02755999999999</v>
       </c>
       <c r="N11">
-        <v>2.16990234270946</v>
+        <v>267.08268</v>
       </c>
       <c r="O11">
-        <v>0.01962055177520146</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="P11">
-        <v>0.01962055177520146</v>
+        <v>0.7848102735793893</v>
       </c>
       <c r="Q11">
-        <v>3.682447183277932</v>
+        <v>34.175454595</v>
       </c>
       <c r="R11">
-        <v>3.682447183277932</v>
+        <v>307.579091355</v>
       </c>
       <c r="S11">
-        <v>0.002559532037429554</v>
+        <v>0.02165277689547781</v>
       </c>
       <c r="T11">
-        <v>0.002559532037429554</v>
+        <v>0.02165277689547781</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.69705664204216</v>
+        <v>0.383875</v>
       </c>
       <c r="H12">
-        <v>1.69705664204216</v>
+        <v>1.151625</v>
       </c>
       <c r="I12">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J12">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>88.76509624945309</v>
+        <v>0.184005</v>
       </c>
       <c r="N12">
-        <v>88.76509624945309</v>
+        <v>0.5520149999999999</v>
       </c>
       <c r="O12">
-        <v>0.8026260594836044</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="P12">
-        <v>0.8026260594836044</v>
+        <v>0.0016220709001794</v>
       </c>
       <c r="Q12">
-        <v>150.639396171646</v>
+        <v>0.07063491937499999</v>
       </c>
       <c r="R12">
-        <v>150.639396171646</v>
+        <v>0.6357142743749999</v>
       </c>
       <c r="S12">
-        <v>0.1047038399766426</v>
+        <v>4.475264977106409E-05</v>
       </c>
       <c r="T12">
-        <v>0.1047038399766426</v>
+        <v>4.475264977106408E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.69705664204216</v>
+        <v>0.383875</v>
       </c>
       <c r="H13">
-        <v>1.69705664204216</v>
+        <v>1.151625</v>
       </c>
       <c r="I13">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="J13">
-        <v>0.1304515829501065</v>
+        <v>0.02758982345723265</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.6583408597897</v>
+        <v>21.16964733333333</v>
       </c>
       <c r="N13">
-        <v>19.6583408597897</v>
+        <v>63.508942</v>
       </c>
       <c r="O13">
-        <v>0.177753388741194</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="P13">
-        <v>0.177753388741194</v>
+        <v>0.1866181294337677</v>
       </c>
       <c r="Q13">
-        <v>33.36131792763489</v>
+        <v>8.126498370083334</v>
       </c>
       <c r="R13">
-        <v>33.36131792763489</v>
+        <v>73.13848533075</v>
       </c>
       <c r="S13">
-        <v>0.02318821093603441</v>
+        <v>0.005148761244996644</v>
       </c>
       <c r="T13">
-        <v>0.02318821093603441</v>
+        <v>0.005148761244996644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.264687</v>
+      </c>
+      <c r="H14">
+        <v>6.794061</v>
+      </c>
+      <c r="I14">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J14">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.057109</v>
+      </c>
+      <c r="N14">
+        <v>9.171327</v>
+      </c>
+      <c r="O14">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="P14">
+        <v>0.02694952608666365</v>
+      </c>
+      <c r="Q14">
+        <v>6.923395009882999</v>
+      </c>
+      <c r="R14">
+        <v>62.310555088947</v>
+      </c>
+      <c r="S14">
+        <v>0.004386502806906145</v>
+      </c>
+      <c r="T14">
+        <v>0.004386502806906145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.264687</v>
+      </c>
+      <c r="H15">
+        <v>6.794061</v>
+      </c>
+      <c r="I15">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J15">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>89.02755999999999</v>
+      </c>
+      <c r="N15">
+        <v>267.08268</v>
+      </c>
+      <c r="O15">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="P15">
+        <v>0.7848102735793893</v>
+      </c>
+      <c r="Q15">
+        <v>201.61955777372</v>
+      </c>
+      <c r="R15">
+        <v>1814.57601996348</v>
+      </c>
+      <c r="S15">
+        <v>0.1277414844652268</v>
+      </c>
+      <c r="T15">
+        <v>0.1277414844652268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.264687</v>
+      </c>
+      <c r="H16">
+        <v>6.794061</v>
+      </c>
+      <c r="I16">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J16">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.184005</v>
+      </c>
+      <c r="N16">
+        <v>0.5520149999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="P16">
+        <v>0.0016220709001794</v>
+      </c>
+      <c r="Q16">
+        <v>0.4167137314349999</v>
+      </c>
+      <c r="R16">
+        <v>3.750423582914999</v>
+      </c>
+      <c r="S16">
+        <v>0.0002640201736296498</v>
+      </c>
+      <c r="T16">
+        <v>0.0002640201736296498</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.264687</v>
+      </c>
+      <c r="H17">
+        <v>6.794061</v>
+      </c>
+      <c r="I17">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="J17">
+        <v>0.162767344880208</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.16964733333333</v>
+      </c>
+      <c r="N17">
+        <v>63.508942</v>
+      </c>
+      <c r="O17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="P17">
+        <v>0.1866181294337677</v>
+      </c>
+      <c r="Q17">
+        <v>47.94262511038467</v>
+      </c>
+      <c r="R17">
+        <v>431.483625993462</v>
+      </c>
+      <c r="S17">
+        <v>0.03037533743444537</v>
+      </c>
+      <c r="T17">
+        <v>0.03037533743444536</v>
       </c>
     </row>
   </sheetData>
